--- a/doku/imort.xlsx
+++ b/doku/imort.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre Reutow\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\IdeaProjects\csv_v2\doku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97181071-6A09-4CC6-AAF7-11BFC625F5AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3CAAA6-1920-48CA-AD64-80C7A0E6FC3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Коды валют" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="3" r:id="rId2"/>
+    <sheet name="Коды валют" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,16 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="273">
-  <si>
-    <t>table</t>
-  </si>
-  <si>
-    <t>transaktion_typ</t>
-  </si>
-  <si>
-    <t>Operation_Typ</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="274">
   <si>
     <t>INTERN</t>
   </si>
@@ -49,57 +41,15 @@
     <t>DEBIT</t>
   </si>
   <si>
-    <t>transaktion nummer</t>
-  </si>
-  <si>
-    <t>additional transaktion number</t>
-  </si>
-  <si>
     <t>KZUK</t>
   </si>
   <si>
     <t>SEPA</t>
   </si>
   <si>
-    <t>betrag</t>
-  </si>
-  <si>
-    <t>kontonr</t>
-  </si>
-  <si>
-    <t>blz</t>
-  </si>
-  <si>
-    <t>trans datum</t>
-  </si>
-  <si>
-    <t>valuta</t>
-  </si>
-  <si>
-    <t>mandateferenz</t>
-  </si>
-  <si>
     <t>cashtr</t>
   </si>
   <si>
-    <t>vw1</t>
-  </si>
-  <si>
-    <t>vw2</t>
-  </si>
-  <si>
-    <t>kunde_id</t>
-  </si>
-  <si>
-    <t>bemerkung 1</t>
-  </si>
-  <si>
-    <t>bemerkung 2</t>
-  </si>
-  <si>
-    <t>bemerkung 3</t>
-  </si>
-  <si>
     <t>text</t>
   </si>
   <si>
@@ -121,9 +71,6 @@
     <t>y только при SEPA</t>
   </si>
   <si>
-    <t>currency</t>
-  </si>
-  <si>
     <t>Lastschrift</t>
   </si>
   <si>
@@ -845,6 +792,63 @@
   </si>
   <si>
     <t>Китайский юань женьминьби</t>
+  </si>
+  <si>
+    <t>TRANSAKTION_TYP</t>
+  </si>
+  <si>
+    <t>OPERATION_TYP</t>
+  </si>
+  <si>
+    <t>TRANSACTIONS_CODE</t>
+  </si>
+  <si>
+    <t>TRANSAKTION_NUMMER</t>
+  </si>
+  <si>
+    <t>ADDITIONAL_TRANSAKTION_NUMBER</t>
+  </si>
+  <si>
+    <t>BETRAG</t>
+  </si>
+  <si>
+    <t>CURRENCY</t>
+  </si>
+  <si>
+    <t>KONTONR</t>
+  </si>
+  <si>
+    <t>BLZ</t>
+  </si>
+  <si>
+    <t>TRANS_DATUM</t>
+  </si>
+  <si>
+    <t>VALUTA</t>
+  </si>
+  <si>
+    <t>MANDATEFERENZ</t>
+  </si>
+  <si>
+    <t>KUNDE_ID</t>
+  </si>
+  <si>
+    <t>VW1</t>
+  </si>
+  <si>
+    <t>VW2</t>
+  </si>
+  <si>
+    <t>BEMERKUNG_1</t>
+  </si>
+  <si>
+    <t>BEMERKUNG_2</t>
+  </si>
+  <si>
+    <t>BEMERKUNG_3</t>
+  </si>
+  <si>
+    <t>TABLE</t>
   </si>
 </sst>
 </file>
@@ -1175,107 +1179,107 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.06640625" customWidth="1"/>
-    <col min="4" max="4" width="64.46484375" customWidth="1"/>
-    <col min="9" max="9" width="5.59765625" customWidth="1"/>
-    <col min="10" max="10" width="17.73046875" customWidth="1"/>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="4" max="4" width="64.42578125" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" t="s">
-        <v>35</v>
-      </c>
       <c r="F4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1284,15 +1288,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>259</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1301,176 +1305,176 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>260</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>261</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>263</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>264</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>265</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>266</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>267</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>268</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>269</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>270</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>271</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>272</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I25" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I25" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I26" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="J26" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="K26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I27" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="J27" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="K27" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1483,1281 +1487,1355 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFFBB7EE-30BD-4A44-8E01-E57F52B43484}">
+  <dimension ref="A1:S1"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="S1" sqref="A1:S1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G1" t="s">
+        <v>260</v>
+      </c>
+      <c r="H1" t="s">
+        <v>261</v>
+      </c>
+      <c r="I1" t="s">
+        <v>262</v>
+      </c>
+      <c r="J1" t="s">
+        <v>263</v>
+      </c>
+      <c r="K1" t="s">
+        <v>264</v>
+      </c>
+      <c r="L1" t="s">
+        <v>265</v>
+      </c>
+      <c r="M1" t="s">
+        <v>266</v>
+      </c>
+      <c r="N1" t="s">
+        <v>267</v>
+      </c>
+      <c r="O1" t="s">
+        <v>268</v>
+      </c>
+      <c r="P1" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>270</v>
+      </c>
+      <c r="R1" t="s">
+        <v>271</v>
+      </c>
+      <c r="S1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB053807-F7E7-4388-951C-AEF99068CA99}">
   <dimension ref="A1:J109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B1">
         <v>784</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="G1" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="H1">
         <v>840</v>
       </c>
       <c r="I1" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="J1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B2">
         <v>971</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="H2">
         <v>978</v>
       </c>
       <c r="I2" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="J2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="H3">
         <v>826</v>
       </c>
       <c r="I3" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="J3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B4">
         <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="H4">
         <v>392</v>
       </c>
       <c r="I4" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="J4" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B5">
         <v>973</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="H5">
         <v>756</v>
       </c>
       <c r="I5" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B6">
         <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="G6" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="H6">
         <v>156</v>
       </c>
       <c r="I6" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B7">
         <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="B8">
         <v>944</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="B9">
         <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="B10">
         <v>975</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="B11">
         <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="B12">
         <v>108</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="B13">
         <v>96</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="B14">
         <v>68</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="B15">
         <v>986</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="B16">
         <v>72</v>
       </c>
       <c r="C16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="B17">
         <v>933</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="B18">
         <v>124</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="B19">
         <v>976</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="B20">
         <v>152</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="B21">
         <v>170</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="B22">
         <v>188</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="B23">
         <v>192</v>
       </c>
       <c r="C23" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="B24">
         <v>203</v>
       </c>
       <c r="C24" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="B25">
         <v>262</v>
       </c>
       <c r="C25" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="B26">
         <v>208</v>
       </c>
       <c r="C26" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="B27">
         <v>12</v>
       </c>
       <c r="C27" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="B28">
         <v>818</v>
       </c>
       <c r="C28" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="B29">
         <v>230</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="B30">
         <v>981</v>
       </c>
       <c r="C30" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B31">
         <v>936</v>
       </c>
       <c r="C31" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="B32">
         <v>270</v>
       </c>
       <c r="C32" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="B33">
         <v>324</v>
       </c>
       <c r="C33" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="B34">
         <v>344</v>
       </c>
       <c r="C34" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="B35">
         <v>191</v>
       </c>
       <c r="C35" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="B36">
         <v>348</v>
       </c>
       <c r="C36" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B37">
         <v>360</v>
       </c>
       <c r="C37" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="B38">
         <v>376</v>
       </c>
       <c r="C38" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="B39">
         <v>356</v>
       </c>
       <c r="C39" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="B40">
         <v>368</v>
       </c>
       <c r="C40" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="B41">
         <v>364</v>
       </c>
       <c r="C41" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="B42">
         <v>352</v>
       </c>
       <c r="C42" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="B43">
         <v>400</v>
       </c>
       <c r="C43" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="B44">
         <v>404</v>
       </c>
       <c r="C44" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="B45">
         <v>417</v>
       </c>
       <c r="C45" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="B46">
         <v>116</v>
       </c>
       <c r="C46" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="B47">
         <v>408</v>
       </c>
       <c r="C47" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="B48">
         <v>410</v>
       </c>
       <c r="C48" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="B49">
         <v>414</v>
       </c>
       <c r="C49" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="B50">
         <v>398</v>
       </c>
       <c r="C50" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="B51">
         <v>418</v>
       </c>
       <c r="C51" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="B52">
         <v>422</v>
       </c>
       <c r="C52" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="B53">
         <v>144</v>
       </c>
       <c r="C53" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="B54">
         <v>434</v>
       </c>
       <c r="C54" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="B55">
         <v>504</v>
       </c>
       <c r="C55" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="B56">
         <v>498</v>
       </c>
       <c r="C56" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="B57">
         <v>969</v>
       </c>
       <c r="C57" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B58">
         <v>807</v>
       </c>
       <c r="C58" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="B59">
         <v>496</v>
       </c>
       <c r="C59" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="B60">
         <v>478</v>
       </c>
       <c r="C60" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="B61">
         <v>480</v>
       </c>
       <c r="C61" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="B62">
         <v>462</v>
       </c>
       <c r="C62" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="B63">
         <v>454</v>
       </c>
       <c r="C63" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="B64">
         <v>484</v>
       </c>
       <c r="C64" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="B65">
         <v>458</v>
       </c>
       <c r="C65" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="B66">
         <v>943</v>
       </c>
       <c r="C66" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="B67">
         <v>516</v>
       </c>
       <c r="C67" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="B68">
         <v>566</v>
       </c>
       <c r="C68" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="B69">
         <v>558</v>
       </c>
       <c r="C69" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="B70">
         <v>578</v>
       </c>
       <c r="C70" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="B71">
         <v>524</v>
       </c>
       <c r="C71" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="B72">
         <v>554</v>
       </c>
       <c r="C72" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="B73">
         <v>512</v>
       </c>
       <c r="C73" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="B74">
         <v>604</v>
       </c>
       <c r="C74" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="B75">
         <v>608</v>
       </c>
       <c r="C75" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="B76">
         <v>586</v>
       </c>
       <c r="C76" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="B77">
         <v>985</v>
       </c>
       <c r="C77" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="B78">
         <v>600</v>
       </c>
       <c r="C78" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="B79">
         <v>634</v>
       </c>
       <c r="C79" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="B80">
         <v>946</v>
       </c>
       <c r="C80" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="B81">
         <v>941</v>
       </c>
       <c r="C81" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="B82">
         <v>682</v>
       </c>
       <c r="C82" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="B83">
         <v>690</v>
       </c>
       <c r="C83" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="B84">
         <v>938</v>
       </c>
       <c r="C84" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="B85">
         <v>752</v>
       </c>
       <c r="C85" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="B86">
         <v>702</v>
       </c>
       <c r="C86" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="B87">
         <v>694</v>
       </c>
       <c r="C87" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="B88">
         <v>706</v>
       </c>
       <c r="C88" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="B89">
         <v>968</v>
       </c>
       <c r="C89" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="B90">
         <v>760</v>
       </c>
       <c r="C90" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="B91">
         <v>748</v>
       </c>
       <c r="C91" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="B92">
         <v>764</v>
       </c>
       <c r="C92" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="B93">
         <v>972</v>
       </c>
       <c r="C93" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="B94">
         <v>795</v>
       </c>
       <c r="C94" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="B95">
         <v>788</v>
       </c>
       <c r="C95" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="B96">
         <v>949</v>
       </c>
       <c r="C96" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="B97">
         <v>901</v>
       </c>
       <c r="C97" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="B98">
         <v>834</v>
       </c>
       <c r="C98" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="B99">
         <v>800</v>
       </c>
       <c r="C99" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="B100">
         <v>858</v>
       </c>
       <c r="C100" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="B101">
         <v>860</v>
       </c>
       <c r="C101" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="B102">
         <v>937</v>
       </c>
       <c r="C102" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="B103">
         <v>704</v>
       </c>
       <c r="C103" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="B104">
         <v>950</v>
       </c>
       <c r="C104" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="B105">
         <v>960</v>
       </c>
       <c r="C105" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="B106">
         <v>952</v>
       </c>
       <c r="C106" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="B107">
         <v>886</v>
       </c>
       <c r="C107" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="B108">
         <v>710</v>
       </c>
       <c r="C108" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="B109">
         <v>894</v>
       </c>
       <c r="C109" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>